--- a/Arguments.xlsx
+++ b/Arguments.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiyao\Documents\workspace\OptimumS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64E5E75-2B4E-440F-B3EB-A7AD7106DDC9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16900" windowHeight="7280" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Config" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="#1 H7RLVL" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="#2 H7RLVL" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="#3 H7RLVL" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Config" sheetId="1" r:id="rId1"/>
+    <sheet name="#1 H7RLVL" sheetId="2" r:id="rId2"/>
+    <sheet name="#2 H7RLVL" sheetId="3" r:id="rId3"/>
+    <sheet name="#3 H7RLVL" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="135">
   <si>
     <t>Library</t>
   </si>
@@ -186,33 +191,276 @@
   </si>
   <si>
     <t>HTR HL Alarm</t>
+  </si>
+  <si>
+    <t>HH3LEVEL</t>
+  </si>
+  <si>
+    <t>HH1LVL_2</t>
+  </si>
+  <si>
+    <t>HH1LCV_P</t>
+  </si>
+  <si>
+    <t>HH1LEVEL</t>
+  </si>
+  <si>
+    <t>#1 H7RLVL LEVEL</t>
+  </si>
+  <si>
+    <t>HH1LCV_CMD</t>
+  </si>
+  <si>
+    <t>HH1LVL_SP</t>
+  </si>
+  <si>
+    <t>#1 H7RLVL LVL SP</t>
+  </si>
+  <si>
+    <t>HH1LVL_FO</t>
+  </si>
+  <si>
+    <t>#1 H7RLVL LVL FO</t>
+  </si>
+  <si>
+    <t>HH1LEVEL_DEV_HI</t>
+  </si>
+  <si>
+    <t>#1 H7RLVL LEVEL DEV HI</t>
+  </si>
+  <si>
+    <t>HH1LEVEL_BQ</t>
+  </si>
+  <si>
+    <t>#1 H7RLVL LEVEL BQ</t>
+  </si>
+  <si>
+    <t>HH1OVRD_OPEN</t>
+  </si>
+  <si>
+    <t>#1 H7RLVL OVRD OPEN</t>
+  </si>
+  <si>
+    <t>HH1LCV_MAN</t>
+  </si>
+  <si>
+    <t>#1 H7RLVL LCV MAN</t>
+  </si>
+  <si>
+    <t>HH1LVL_MRE</t>
+  </si>
+  <si>
+    <t>#1 H7RLVL LVL MRE</t>
+  </si>
+  <si>
+    <t>HH1LVL_1oo2</t>
+  </si>
+  <si>
+    <t>#1 H7RLVL LVL 1oo2</t>
+  </si>
+  <si>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>HH1LVL_FO2</t>
+  </si>
+  <si>
+    <t>#1 H7RLVL LVL FO2</t>
+  </si>
+  <si>
+    <t>HH1LCV</t>
+  </si>
+  <si>
+    <t>#1 H7RLVL LCV</t>
+  </si>
+  <si>
+    <t>SPL</t>
+  </si>
+  <si>
+    <t>HDB</t>
+  </si>
+  <si>
+    <t>LDB</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>HH1LVL_1</t>
+  </si>
+  <si>
+    <t>HH2LEVEL</t>
+  </si>
+  <si>
+    <t>#2 H7RLVL LEVEL</t>
+  </si>
+  <si>
+    <t>HH2LCV_CMD</t>
+  </si>
+  <si>
+    <t>HH2LVL_SP</t>
+  </si>
+  <si>
+    <t>#2 H7RLVL LVL SP</t>
+  </si>
+  <si>
+    <t>HH2LVL_FO</t>
+  </si>
+  <si>
+    <t>#2 H7RLVL LVL FO</t>
+  </si>
+  <si>
+    <t>HH2LEVEL_DEV_HI</t>
+  </si>
+  <si>
+    <t>#2 H7RLVL LEVEL DEV HI</t>
+  </si>
+  <si>
+    <t>HH2LEVEL_BQ</t>
+  </si>
+  <si>
+    <t>#2 H7RLVL LEVEL BQ</t>
+  </si>
+  <si>
+    <t>HH2OVRD_OPEN</t>
+  </si>
+  <si>
+    <t>#2 H7RLVL OVRD OPEN</t>
+  </si>
+  <si>
+    <t>HH2LCV_MAN</t>
+  </si>
+  <si>
+    <t>#2 H7RLVL LCV MAN</t>
+  </si>
+  <si>
+    <t>HH2LVL_MRE</t>
+  </si>
+  <si>
+    <t>#2 H7RLVL LVL MRE</t>
+  </si>
+  <si>
+    <t>HH2LVL_1oo2</t>
+  </si>
+  <si>
+    <t>#2 H7RLVL LVL 1oo2</t>
+  </si>
+  <si>
+    <t>HH2LVL_FO2</t>
+  </si>
+  <si>
+    <t>#2 H7RLVL LVL FO2</t>
+  </si>
+  <si>
+    <t>HH2LCV</t>
+  </si>
+  <si>
+    <t>#2 H7RLVL LCV</t>
+  </si>
+  <si>
+    <t>HH1LVL_3</t>
+  </si>
+  <si>
+    <t>#3 H7RLVL LEVEL</t>
+  </si>
+  <si>
+    <t>HH3LCV_CMD</t>
+  </si>
+  <si>
+    <t>HH3LVL_SP</t>
+  </si>
+  <si>
+    <t>#3 H7RLVL LVL SP</t>
+  </si>
+  <si>
+    <t>HH3LVL_FO</t>
+  </si>
+  <si>
+    <t>#3 H7RLVL LVL FO</t>
+  </si>
+  <si>
+    <t>HH3LEVEL_DEV_HI</t>
+  </si>
+  <si>
+    <t>#3 H7RLVL LEVEL DEV HI</t>
+  </si>
+  <si>
+    <t>HH3LEVEL_BQ</t>
+  </si>
+  <si>
+    <t>#3 H7RLVL LEVEL BQ</t>
+  </si>
+  <si>
+    <t>HH3OVRD_OPEN</t>
+  </si>
+  <si>
+    <t>#3 H7RLVL OVRD OPEN</t>
+  </si>
+  <si>
+    <t>HH3LCV_MAN</t>
+  </si>
+  <si>
+    <t>#3 H7RLVL LCV MAN</t>
+  </si>
+  <si>
+    <t>HH3LVL_MRE</t>
+  </si>
+  <si>
+    <t>#3 H7RLVL LVL MRE</t>
+  </si>
+  <si>
+    <t>HH3LVL_1oo2</t>
+  </si>
+  <si>
+    <t>#3 H7RLVL LVL 1oo2</t>
+  </si>
+  <si>
+    <t>HH3LVL_FO2</t>
+  </si>
+  <si>
+    <t>#3 H7RLVL LVL FO2</t>
+  </si>
+  <si>
+    <t>HH3LCV</t>
+  </si>
+  <si>
+    <t>#3 H7RLVL LCV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <color rgb="00FFFFFF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -222,16 +470,16 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
+        <fgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0000FF00"/>
+        <fgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -241,39 +489,109 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -561,21 +879,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="50"/>
-    <col customWidth="1" max="2" min="2" width="50"/>
+    <col min="1" max="2" width="50" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -635,261 +946,373 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col customWidth="1" max="2" min="2" width="30"/>
-    <col customWidth="1" max="3" min="3" width="15"/>
-    <col customWidth="1" max="4" min="4" width="30"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:6"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="4" t="n"/>
+      <c r="C5" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="4" t="n"/>
+      <c r="C6" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="4" t="n"/>
-    </row>
-    <row r="8" spans="1:6"/>
+      <c r="C7" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="4" t="n"/>
-      <c r="D11" s="4" t="n"/>
+      <c r="C11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="4" t="n"/>
-      <c r="D12" s="4" t="n"/>
+      <c r="C12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="4" t="n"/>
-      <c r="D13" s="4" t="n"/>
+      <c r="C13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="4" t="n"/>
-      <c r="D14" s="4" t="n"/>
+      <c r="C14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="4" t="n"/>
-      <c r="D15" s="4" t="n"/>
+      <c r="C15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="4" t="n"/>
-      <c r="D16" s="4" t="n"/>
+      <c r="C16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="4" t="n"/>
-      <c r="D17" s="4" t="n"/>
+      <c r="C17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="4" t="n"/>
-      <c r="D18" s="4" t="n"/>
+      <c r="C18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="4" t="n"/>
-      <c r="D19" s="4" t="n"/>
-    </row>
-    <row r="20" spans="1:6"/>
+      <c r="C19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="6" t="s">
         <v>46</v>
       </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="4" t="n"/>
-      <c r="D23" s="4" t="n"/>
-      <c r="E23" s="4" t="n"/>
-      <c r="F23" s="4" t="n"/>
+      <c r="C23" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="4" t="n"/>
-      <c r="D24" s="4" t="n"/>
-      <c r="E24" s="4" t="n"/>
-      <c r="F24" s="4" t="n"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="4" t="s">
+      <c r="C25" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="4" t="n"/>
-      <c r="D25" s="4" t="n"/>
-      <c r="E25" s="4" t="n"/>
-      <c r="F25" s="4" t="n"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="5" t="s">
+      <c r="C26" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="4" t="n"/>
-      <c r="D26" s="4" t="n"/>
-      <c r="E26" s="4" t="n"/>
-      <c r="F26" s="4" t="n"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="E29" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="E30" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" s="9">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -898,261 +1321,325 @@
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A21:F21"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col customWidth="1" max="2" min="2" width="30"/>
-    <col customWidth="1" max="3" min="3" width="15"/>
-    <col customWidth="1" max="4" min="4" width="30"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:6"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="4" t="n"/>
+      <c r="C5" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="4" t="n"/>
+      <c r="C6" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="4" t="n"/>
-    </row>
-    <row r="8" spans="1:6"/>
+      <c r="C7" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="4" t="n"/>
-      <c r="D11" s="4" t="n"/>
+      <c r="C11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="4" t="n"/>
-      <c r="D12" s="4" t="n"/>
+      <c r="C12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="4" t="n"/>
-      <c r="D13" s="4" t="n"/>
+      <c r="C13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="4" t="n"/>
-      <c r="D14" s="4" t="n"/>
+      <c r="C14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="4" t="n"/>
-      <c r="D15" s="4" t="n"/>
+      <c r="C15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="4" t="n"/>
-      <c r="D16" s="4" t="n"/>
+      <c r="C16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="4" t="n"/>
-      <c r="D17" s="4" t="n"/>
+      <c r="C17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="4" t="n"/>
-      <c r="D18" s="4" t="n"/>
+      <c r="C18" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="4" t="n"/>
-      <c r="D19" s="4" t="n"/>
-    </row>
-    <row r="20" spans="1:6"/>
+      <c r="C19" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="6" t="s">
         <v>46</v>
       </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="4" t="n"/>
-      <c r="D23" s="4" t="n"/>
-      <c r="E23" s="4" t="n"/>
-      <c r="F23" s="4" t="n"/>
+      <c r="C23" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="4" t="n"/>
-      <c r="D24" s="4" t="n"/>
-      <c r="E24" s="4" t="n"/>
-      <c r="F24" s="4" t="n"/>
+      <c r="C24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="4" t="n"/>
-      <c r="D25" s="4" t="n"/>
-      <c r="E25" s="4" t="n"/>
-      <c r="F25" s="4" t="n"/>
+      <c r="C25" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="12">
+        <v>49</v>
+      </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="4" t="n"/>
-      <c r="D26" s="4" t="n"/>
-      <c r="E26" s="4" t="n"/>
-      <c r="F26" s="4" t="n"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1161,261 +1648,321 @@
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A21:F21"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col customWidth="1" max="2" min="2" width="30"/>
-    <col customWidth="1" max="3" min="3" width="15"/>
-    <col customWidth="1" max="4" min="4" width="30"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:6"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="4" t="n"/>
+      <c r="C5" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="4" t="n"/>
+      <c r="C6" s="2" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="4" t="n"/>
-    </row>
-    <row r="8" spans="1:6"/>
+      <c r="C7" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="4" t="n"/>
-      <c r="D11" s="4" t="n"/>
+      <c r="C11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="4" t="n"/>
-      <c r="D12" s="4" t="n"/>
+      <c r="C12" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="4" t="n"/>
-      <c r="D13" s="4" t="n"/>
+      <c r="C13" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="4" t="n"/>
-      <c r="D14" s="4" t="n"/>
+      <c r="C14" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="4" t="n"/>
-      <c r="D15" s="4" t="n"/>
+      <c r="C15" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="4" t="n"/>
-      <c r="D16" s="4" t="n"/>
+      <c r="C16" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="4" t="n"/>
-      <c r="D17" s="4" t="n"/>
+      <c r="C17" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="4" t="n"/>
-      <c r="D18" s="4" t="n"/>
+      <c r="C18" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="4" t="n"/>
-      <c r="D19" s="4" t="n"/>
-    </row>
-    <row r="20" spans="1:6"/>
+      <c r="C19" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="6" t="s">
         <v>46</v>
       </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="4" t="n"/>
-      <c r="D23" s="4" t="n"/>
-      <c r="E23" s="4" t="n"/>
-      <c r="F23" s="4" t="n"/>
+      <c r="C23" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="4" t="n"/>
-      <c r="D24" s="4" t="n"/>
-      <c r="E24" s="4" t="n"/>
-      <c r="F24" s="4" t="n"/>
+      <c r="C24" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="4" t="n"/>
-      <c r="D25" s="4" t="n"/>
-      <c r="E25" s="4" t="n"/>
-      <c r="F25" s="4" t="n"/>
+      <c r="C25" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="4" t="n"/>
-      <c r="D26" s="4" t="n"/>
-      <c r="E26" s="4" t="n"/>
-      <c r="F26" s="4" t="n"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1424,6 +1971,6 @@
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A21:F21"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Arguments.xlsx
+++ b/Arguments.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiyao\Documents\workspace\OptimumS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D236DC-2105-4DC4-9661-1251AC08E1A6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16900" windowHeight="7280" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Config" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="#1 H7RLVL" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="#2 H7RLVL" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="#3 H7RLVL" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Config" sheetId="1" r:id="rId1"/>
+    <sheet name="#1 H7RLVL" sheetId="2" r:id="rId2"/>
+    <sheet name="#2 H7RLVL" sheetId="3" r:id="rId3"/>
+    <sheet name="#3 H7RLVL" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="135">
   <si>
     <t>Library</t>
   </si>
@@ -186,33 +191,276 @@
   </si>
   <si>
     <t>HTR HL Alarm</t>
+  </si>
+  <si>
+    <t>HH3LEVEL</t>
+  </si>
+  <si>
+    <t>HH1LVL_2</t>
+  </si>
+  <si>
+    <t>HH1LCV_P</t>
+  </si>
+  <si>
+    <t>HH1LEVEL</t>
+  </si>
+  <si>
+    <t>#1 H7RLVL LEVEL</t>
+  </si>
+  <si>
+    <t>HH1LCV_CMD</t>
+  </si>
+  <si>
+    <t>HH1LVL_SP</t>
+  </si>
+  <si>
+    <t>#1 H7RLVL LVL SP</t>
+  </si>
+  <si>
+    <t>HH1LVL_FO</t>
+  </si>
+  <si>
+    <t>#1 H7RLVL LVL FO</t>
+  </si>
+  <si>
+    <t>HH1LEVEL_DEV_HI</t>
+  </si>
+  <si>
+    <t>#1 H7RLVL LEVEL DEV HI</t>
+  </si>
+  <si>
+    <t>HH1LEVEL_BQ</t>
+  </si>
+  <si>
+    <t>#1 H7RLVL LEVEL BQ</t>
+  </si>
+  <si>
+    <t>HH1OVRD_OPEN</t>
+  </si>
+  <si>
+    <t>#1 H7RLVL OVRD OPEN</t>
+  </si>
+  <si>
+    <t>HH1LCV_MAN</t>
+  </si>
+  <si>
+    <t>#1 H7RLVL LCV MAN</t>
+  </si>
+  <si>
+    <t>HH1LVL_MRE</t>
+  </si>
+  <si>
+    <t>#1 H7RLVL LVL MRE</t>
+  </si>
+  <si>
+    <t>HH1LVL_1oo2</t>
+  </si>
+  <si>
+    <t>#1 H7RLVL LVL 1oo2</t>
+  </si>
+  <si>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>HH1LVL_FO2</t>
+  </si>
+  <si>
+    <t>#1 H7RLVL LVL FO2</t>
+  </si>
+  <si>
+    <t>HH1LCV</t>
+  </si>
+  <si>
+    <t>#1 H7RLVL LCV</t>
+  </si>
+  <si>
+    <t>SPL</t>
+  </si>
+  <si>
+    <t>HDB</t>
+  </si>
+  <si>
+    <t>LDB</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>HH1LVL_1</t>
+  </si>
+  <si>
+    <t>HH2LEVEL</t>
+  </si>
+  <si>
+    <t>#2 H7RLVL LEVEL</t>
+  </si>
+  <si>
+    <t>HH2LCV_CMD</t>
+  </si>
+  <si>
+    <t>HH2LVL_SP</t>
+  </si>
+  <si>
+    <t>#2 H7RLVL LVL SP</t>
+  </si>
+  <si>
+    <t>HH2LVL_FO</t>
+  </si>
+  <si>
+    <t>#2 H7RLVL LVL FO</t>
+  </si>
+  <si>
+    <t>HH2LEVEL_DEV_HI</t>
+  </si>
+  <si>
+    <t>#2 H7RLVL LEVEL DEV HI</t>
+  </si>
+  <si>
+    <t>HH2LEVEL_BQ</t>
+  </si>
+  <si>
+    <t>#2 H7RLVL LEVEL BQ</t>
+  </si>
+  <si>
+    <t>HH2OVRD_OPEN</t>
+  </si>
+  <si>
+    <t>#2 H7RLVL OVRD OPEN</t>
+  </si>
+  <si>
+    <t>HH2LCV_MAN</t>
+  </si>
+  <si>
+    <t>#2 H7RLVL LCV MAN</t>
+  </si>
+  <si>
+    <t>HH2LVL_MRE</t>
+  </si>
+  <si>
+    <t>#2 H7RLVL LVL MRE</t>
+  </si>
+  <si>
+    <t>HH2LVL_1oo2</t>
+  </si>
+  <si>
+    <t>#2 H7RLVL LVL 1oo2</t>
+  </si>
+  <si>
+    <t>HH2LVL_FO2</t>
+  </si>
+  <si>
+    <t>#2 H7RLVL LVL FO2</t>
+  </si>
+  <si>
+    <t>HH2LCV</t>
+  </si>
+  <si>
+    <t>#2 H7RLVL LCV</t>
+  </si>
+  <si>
+    <t>HH1LVL_3</t>
+  </si>
+  <si>
+    <t>#3 H7RLVL LEVEL</t>
+  </si>
+  <si>
+    <t>HH3LCV_CMD</t>
+  </si>
+  <si>
+    <t>HH3LVL_SP</t>
+  </si>
+  <si>
+    <t>#3 H7RLVL LVL SP</t>
+  </si>
+  <si>
+    <t>HH3LVL_FO</t>
+  </si>
+  <si>
+    <t>#3 H7RLVL LVL FO</t>
+  </si>
+  <si>
+    <t>HH3LEVEL_DEV_HI</t>
+  </si>
+  <si>
+    <t>#3 H7RLVL LEVEL DEV HI</t>
+  </si>
+  <si>
+    <t>HH3LEVEL_BQ</t>
+  </si>
+  <si>
+    <t>#3 H7RLVL LEVEL BQ</t>
+  </si>
+  <si>
+    <t>HH3OVRD_OPEN</t>
+  </si>
+  <si>
+    <t>#3 H7RLVL OVRD OPEN</t>
+  </si>
+  <si>
+    <t>HH3LCV_MAN</t>
+  </si>
+  <si>
+    <t>#3 H7RLVL LCV MAN</t>
+  </si>
+  <si>
+    <t>HH3LVL_MRE</t>
+  </si>
+  <si>
+    <t>#3 H7RLVL LVL MRE</t>
+  </si>
+  <si>
+    <t>HH3LVL_1oo2</t>
+  </si>
+  <si>
+    <t>#3 H7RLVL LVL 1oo2</t>
+  </si>
+  <si>
+    <t>HH3LVL_FO2</t>
+  </si>
+  <si>
+    <t>#3 H7RLVL LVL FO2</t>
+  </si>
+  <si>
+    <t>HH3LCV</t>
+  </si>
+  <si>
+    <t>#3 H7RLVL LCV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <color rgb="00FFFFFF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -222,16 +470,16 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
+        <fgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0000FF00"/>
+        <fgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -241,39 +489,109 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -561,21 +879,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="50"/>
-    <col customWidth="1" max="2" min="2" width="50"/>
+    <col min="1" max="2" width="50" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -635,261 +946,373 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col customWidth="1" max="2" min="2" width="30"/>
-    <col customWidth="1" max="3" min="3" width="15"/>
-    <col customWidth="1" max="4" min="4" width="30"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:6"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="4" t="n"/>
+      <c r="C5" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="4" t="n"/>
+      <c r="C6" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="4" t="n"/>
-    </row>
-    <row r="8" spans="1:6"/>
+      <c r="C7" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="4" t="n"/>
-      <c r="D11" s="4" t="n"/>
+      <c r="C11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="4" t="n"/>
-      <c r="D12" s="4" t="n"/>
+      <c r="C12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="4" t="n"/>
-      <c r="D13" s="4" t="n"/>
+      <c r="C13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="4" t="n"/>
-      <c r="D14" s="4" t="n"/>
+      <c r="C14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="4" t="n"/>
-      <c r="D15" s="4" t="n"/>
+      <c r="C15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="4" t="n"/>
-      <c r="D16" s="4" t="n"/>
+      <c r="C16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="4" t="n"/>
-      <c r="D17" s="4" t="n"/>
+      <c r="C17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="4" t="n"/>
-      <c r="D18" s="4" t="n"/>
+      <c r="C18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="4" t="n"/>
-      <c r="D19" s="4" t="n"/>
-    </row>
-    <row r="20" spans="1:6"/>
+      <c r="C19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="6" t="s">
         <v>45</v>
       </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="4" t="n"/>
-      <c r="D23" s="4" t="n"/>
-      <c r="E23" s="4" t="n"/>
-      <c r="F23" s="4" t="n"/>
+      <c r="C23" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="4" t="n"/>
-      <c r="D24" s="4" t="n"/>
-      <c r="E24" s="4" t="n"/>
-      <c r="F24" s="4" t="n"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="4" t="s">
+      <c r="C25" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="4" t="n"/>
-      <c r="D25" s="4" t="n"/>
-      <c r="E25" s="4" t="n"/>
-      <c r="F25" s="4" t="n"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="5" t="s">
+      <c r="C26" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="4" t="n"/>
-      <c r="D26" s="4" t="n"/>
-      <c r="E26" s="4" t="n"/>
-      <c r="F26" s="4" t="n"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="E29" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="E30" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" s="9">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -898,261 +1321,325 @@
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A21:F21"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col customWidth="1" max="2" min="2" width="30"/>
-    <col customWidth="1" max="3" min="3" width="15"/>
-    <col customWidth="1" max="4" min="4" width="30"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:6"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="4" t="n"/>
+      <c r="C5" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="4" t="n"/>
+      <c r="C6" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="4" t="n"/>
-    </row>
-    <row r="8" spans="1:6"/>
+      <c r="C7" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="4" t="n"/>
-      <c r="D11" s="4" t="n"/>
+      <c r="C11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="4" t="n"/>
-      <c r="D12" s="4" t="n"/>
+      <c r="C12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="4" t="n"/>
-      <c r="D13" s="4" t="n"/>
+      <c r="C13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="4" t="n"/>
-      <c r="D14" s="4" t="n"/>
+      <c r="C14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="4" t="n"/>
-      <c r="D15" s="4" t="n"/>
+      <c r="C15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="4" t="n"/>
-      <c r="D16" s="4" t="n"/>
+      <c r="C16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="4" t="n"/>
-      <c r="D17" s="4" t="n"/>
+      <c r="C17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="4" t="n"/>
-      <c r="D18" s="4" t="n"/>
+      <c r="C18" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="4" t="n"/>
-      <c r="D19" s="4" t="n"/>
-    </row>
-    <row r="20" spans="1:6"/>
+      <c r="C19" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="6" t="s">
         <v>45</v>
       </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="4" t="n"/>
-      <c r="D23" s="4" t="n"/>
-      <c r="E23" s="4" t="n"/>
-      <c r="F23" s="4" t="n"/>
+      <c r="C23" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="4" t="n"/>
-      <c r="D24" s="4" t="n"/>
-      <c r="E24" s="4" t="n"/>
-      <c r="F24" s="4" t="n"/>
+      <c r="C24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="4" t="n"/>
-      <c r="D25" s="4" t="n"/>
-      <c r="E25" s="4" t="n"/>
-      <c r="F25" s="4" t="n"/>
+      <c r="C25" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="12">
+        <v>49</v>
+      </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="4" t="n"/>
-      <c r="D26" s="4" t="n"/>
-      <c r="E26" s="4" t="n"/>
-      <c r="F26" s="4" t="n"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1161,261 +1648,321 @@
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A21:F21"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col customWidth="1" max="2" min="2" width="30"/>
-    <col customWidth="1" max="3" min="3" width="15"/>
-    <col customWidth="1" max="4" min="4" width="30"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:6"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="4" t="n"/>
+      <c r="C5" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="4" t="n"/>
+      <c r="C6" s="2" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="4" t="n"/>
-    </row>
-    <row r="8" spans="1:6"/>
+      <c r="C7" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="4" t="n"/>
-      <c r="D11" s="4" t="n"/>
+      <c r="C11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="4" t="n"/>
-      <c r="D12" s="4" t="n"/>
+      <c r="C12" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="4" t="n"/>
-      <c r="D13" s="4" t="n"/>
+      <c r="C13" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="4" t="n"/>
-      <c r="D14" s="4" t="n"/>
+      <c r="C14" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="4" t="n"/>
-      <c r="D15" s="4" t="n"/>
+      <c r="C15" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="4" t="n"/>
-      <c r="D16" s="4" t="n"/>
+      <c r="C16" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="4" t="n"/>
-      <c r="D17" s="4" t="n"/>
+      <c r="C17" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="4" t="n"/>
-      <c r="D18" s="4" t="n"/>
+      <c r="C18" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="4" t="n"/>
-      <c r="D19" s="4" t="n"/>
-    </row>
-    <row r="20" spans="1:6"/>
+      <c r="C19" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="6" t="s">
         <v>45</v>
       </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="4" t="n"/>
-      <c r="D23" s="4" t="n"/>
-      <c r="E23" s="4" t="n"/>
-      <c r="F23" s="4" t="n"/>
+      <c r="C23" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="4" t="n"/>
-      <c r="D24" s="4" t="n"/>
-      <c r="E24" s="4" t="n"/>
-      <c r="F24" s="4" t="n"/>
+      <c r="C24" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="4" t="n"/>
-      <c r="D25" s="4" t="n"/>
-      <c r="E25" s="4" t="n"/>
-      <c r="F25" s="4" t="n"/>
+      <c r="C25" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="4" t="n"/>
-      <c r="D26" s="4" t="n"/>
-      <c r="E26" s="4" t="n"/>
-      <c r="F26" s="4" t="n"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1424,6 +1971,6 @@
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A21:F21"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Arguments.xlsx
+++ b/Arguments.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiyao\Documents\workspace\OptimumS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiyao\Documents\workspace\LibMaster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D236DC-2105-4DC4-9661-1251AC08E1A6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533F1E6C-3E6E-459C-81AC-3AFEC6521962}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16900" windowHeight="7280" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16900" windowHeight="7280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -565,6 +565,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -572,12 +578,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -954,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -966,21 +966,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
@@ -1027,12 +1027,12 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
@@ -1173,14 +1173,14 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
@@ -1209,28 +1209,28 @@
       <c r="B23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7" t="s">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1241,14 +1241,14 @@
       <c r="B25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
@@ -1257,28 +1257,28 @@
       <c r="B26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="4">
         <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7" t="s">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1289,28 +1289,28 @@
       <c r="B28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="8" t="s">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="6">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="6">
         <v>99</v>
       </c>
     </row>
@@ -1341,21 +1341,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
@@ -1402,12 +1402,12 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
@@ -1548,14 +1548,14 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
@@ -1590,8 +1590,8 @@
       <c r="D23" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
@@ -1603,11 +1603,11 @@
       <c r="C24" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
@@ -1622,10 +1622,10 @@
       <c r="D25" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="9">
         <v>49</v>
       </c>
     </row>
@@ -1656,7 +1656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23:D25"/>
     </sheetView>
   </sheetViews>
@@ -1668,21 +1668,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
@@ -1729,12 +1729,12 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
@@ -1875,14 +1875,14 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
